--- a/Reports/MarketBeatRank/TanzyInvested/RRC.xlsx
+++ b/Reports/MarketBeatRank/TanzyInvested/RRC.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="45">
   <si>
     <t>Jun_10</t>
   </si>
@@ -141,6 +141,12 @@
   </si>
   <si>
     <t>Jun_13</t>
+  </si>
+  <si>
+    <t>Jun_15</t>
+  </si>
+  <si>
+    <t>Jun_17</t>
   </si>
 </sst>
 </file>
@@ -202,14 +208,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="3" max="3" customWidth="true" width="8.0" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="8.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="8.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="8.0" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="B1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>0</v>
       </c>
     </row>
@@ -223,6 +237,12 @@
       <c r="C2" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="D2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -232,6 +252,12 @@
         <v>2</v>
       </c>
       <c r="C3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="0" t="s">
         <v>31</v>
       </c>
     </row>
@@ -245,6 +271,12 @@
       <c r="C4" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="D4" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -256,6 +288,12 @@
       <c r="C5" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="D5" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -265,6 +303,12 @@
         <v>2</v>
       </c>
       <c r="C6" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="0" t="s">
         <v>32</v>
       </c>
     </row>
@@ -276,6 +320,12 @@
         <v>2</v>
       </c>
       <c r="C7" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="0" t="s">
         <v>8</v>
       </c>
     </row>
@@ -287,6 +337,12 @@
         <v>2</v>
       </c>
       <c r="C8" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="0" t="s">
         <v>33</v>
       </c>
     </row>
@@ -300,6 +356,12 @@
       <c r="C9" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="D9" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
@@ -309,6 +371,12 @@
         <v>2</v>
       </c>
       <c r="C10" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" s="0" t="s">
         <v>12</v>
       </c>
     </row>
@@ -322,6 +390,12 @@
       <c r="C11" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="D11" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
@@ -333,6 +407,12 @@
       <c r="C12" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="D12" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -341,7 +421,13 @@
       <c r="B13" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>34</v>
       </c>
     </row>
@@ -353,6 +439,12 @@
         <v>2</v>
       </c>
       <c r="C14" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" s="0" t="s">
         <v>17</v>
       </c>
     </row>
@@ -366,6 +458,12 @@
       <c r="C15" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="D15" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
@@ -377,6 +475,12 @@
       <c r="C16" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="D16" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
@@ -386,6 +490,12 @@
         <v>2</v>
       </c>
       <c r="C17" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E17" s="0" t="s">
         <v>35</v>
       </c>
     </row>
@@ -397,6 +507,12 @@
         <v>2</v>
       </c>
       <c r="C18" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E18" s="0" t="s">
         <v>36</v>
       </c>
     </row>
@@ -408,6 +524,12 @@
         <v>2</v>
       </c>
       <c r="C19" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19" s="0" t="s">
         <v>37</v>
       </c>
     </row>
@@ -419,6 +541,12 @@
         <v>2</v>
       </c>
       <c r="C20" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E20" s="0" t="s">
         <v>38</v>
       </c>
     </row>
@@ -430,6 +558,12 @@
         <v>2</v>
       </c>
       <c r="C21" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E21" s="0" t="s">
         <v>39</v>
       </c>
     </row>
@@ -443,6 +577,12 @@
       <c r="C22" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="D22" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
@@ -454,6 +594,12 @@
       <c r="C23" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="D23" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
@@ -465,6 +611,12 @@
       <c r="C24" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="D24" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
@@ -476,6 +628,12 @@
       <c r="C25" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="D25" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
@@ -487,6 +645,12 @@
       <c r="C26" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="D26" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
@@ -496,6 +660,12 @@
         <v>2</v>
       </c>
       <c r="C27" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E27" s="0" t="s">
         <v>40</v>
       </c>
     </row>
